--- a/yield_prediction/results/graph_descriptors/WLlinear_2/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLlinear_2/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.42</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.651</v>
+        <v>17.905</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.705</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.543</v>
+        <v>15.153</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.657</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.074</v>
+        <v>9.890000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6.795338748363333</v>
+        <v>-4.50390175645947</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>23.17286708183787</v>
+        <v>7.406198463043886</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.33153225895321</v>
+        <v>13.26844313261539</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.77174028669814</v>
+        <v>-10.54832510730472</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.87777911187953</v>
+        <v>2.938794285574556</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.58089804906817</v>
+        <v>9.577260151655288</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>14.10310414670507</v>
+        <v>0.7953538696895208</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.94932734248079</v>
+        <v>12.81624810493901</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>34.94063971418728</v>
+        <v>18.73302645737401</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>27.54724195394199</v>
+        <v>11.14671723763814</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>37.28215873483425</v>
+        <v>16.30942772455448</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>41.44048118410811</v>
+        <v>17.95192037010336</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3.397974433884276</v>
+        <v>0.5174764736675179</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28.32083554129396</v>
+        <v>5.260488617553531</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36.17114683925116</v>
+        <v>16.12675940968416</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.537764164487603</v>
+        <v>7.535950420656711</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.08858616948971</v>
+        <v>19.39517917209209</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.11427140125463</v>
+        <v>24.60793162181396</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-3.117487020873373</v>
+        <v>-3.319233837059134</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>18.49675995699726</v>
+        <v>10.11027818469075</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>25.15840562984724</v>
+        <v>16.01325241321967</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10.00007038347477</v>
+        <v>6.711308204106253</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28.91664209343861</v>
+        <v>18.68085773813518</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>11.58826032403546</v>
+        <v>-6.908583102367807</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>30.93487988753947</v>
+        <v>14.16851275070494</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>35.23683337611246</v>
+        <v>16.56593314917677</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>11.06686980669205</v>
+        <v>-9.797614997248974</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>32.45536249132176</v>
+        <v>14.0703040786988</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>37.21135102037339</v>
+        <v>16.78516747641975</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>23.82831823905924</v>
+        <v>4.664299674538231</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>42.54731206063556</v>
+        <v>25.9374657576476</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>46.70970541876149</v>
+        <v>28.35718822146847</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>41.38505077741905</v>
+        <v>33.85483935340294</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>53.57661323593163</v>
+        <v>37.3408125572813</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>56.82657749755903</v>
+        <v>36.7590973753162</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>16.21472071516305</v>
+        <v>4.270275872175763</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>45.65586118893897</v>
+        <v>25.56820705044792</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>52.20245278097335</v>
+        <v>29.91069700521745</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>12.61277170407575</v>
+        <v>5.98031315594098</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>35.3293506729137</v>
+        <v>30.11599790309487</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>40.49292628082786</v>
+        <v>34.48400411697217</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>8.077983480712483</v>
+        <v>0.5681179746280094</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>33.19210646741838</v>
+        <v>27.89961442003066</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>38.90065409011279</v>
+        <v>32.84598936480052</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>22.70084502615733</v>
+        <v>17.4362483251683</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>44.68047304175444</v>
+        <v>41.79645590475873</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>10.0263041851818</v>
+        <v>-12.60547574588206</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.92268730534163</v>
+        <v>8.873119049423639</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>34.2440385404147</v>
+        <v>13.40221586764306</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>10.6576309965142</v>
+        <v>-11.77226388222411</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>32.65391016142247</v>
+        <v>12.55031670539812</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>37.43134370611587</v>
+        <v>17.67911229934321</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>23.48210189195604</v>
+        <v>3.405403276989521</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>42.733024332203</v>
+        <v>25.0838032566421</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>46.91418615247366</v>
+        <v>29.65503211530899</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>41.60765819760574</v>
+        <v>35.21871419970141</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>54.28919403190278</v>
+        <v>37.08629120001352</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>57.63328537456974</v>
+        <v>39.09372133405292</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>16.37735781355812</v>
+        <v>-2.729032253932079</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>46.65511297579393</v>
+        <v>21.41275883632502</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>53.23122351183517</v>
+        <v>27.58562605599594</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>11.42196928652457</v>
+        <v>0.8824787372289755</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.70377458258046</v>
+        <v>26.07678958177425</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>39.89575735903907</v>
+        <v>33.75843983365664</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>8.179389198458463</v>
+        <v>-2.95575380321857</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>33.91839340149932</v>
+        <v>25.57454167030493</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>39.65834633066567</v>
+        <v>34.27332104008816</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>22.85457749731825</v>
+        <v>15.33638915928635</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>45.38109527276376</v>
+        <v>40.7650707329601</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>10.54545106606101</v>
+        <v>-14.49592524968163</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>28.09005968131491</v>
+        <v>5.312031392448013</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>33.35696352562455</v>
+        <v>13.75508265172151</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>8.722894742013997</v>
+        <v>-10.78182243112514</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>28.11918936549173</v>
+        <v>11.64891041223842</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>33.94197065164308</v>
+        <v>21.2099080760144</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>20.38451853220835</v>
+        <v>2.237008467304737</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>37.35996063427456</v>
+        <v>22.2292291390919</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>42.45600029106522</v>
+        <v>30.75082210136901</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>35.04978552738229</v>
+        <v>27.82205468258266</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>45.74250674161928</v>
+        <v>29.95429291242646</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>50.09314624669439</v>
+        <v>36.08507124484014</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>10.29048516483434</v>
+        <v>-1.871725021001325</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>36.98937615732181</v>
+        <v>18.20276475927578</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>45.00440200890346</v>
+        <v>31.01614551366486</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>10.34476897248061</v>
+        <v>-1.063671083040553</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>31.15003374898395</v>
+        <v>20.96859061209711</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>37.31067633929169</v>
+        <v>31.64839952003103</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>4.051956854258474</v>
+        <v>-3.444256404657217</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>27.05304249680978</v>
+        <v>21.50530224732346</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>33.86388914332214</v>
+        <v>33.59922716649187</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>17.52470238716435</v>
+        <v>9.525072658905728</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>37.65502135732365</v>
+        <v>31.7622900390649</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>34.74684743003287</v>
+        <v>23.94210195252461</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>27.40412804311894</v>
+        <v>22.50136874102543</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>40.13026136610371</v>
+        <v>34.51376771327656</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>45.78512184973891</v>
+        <v>34.96653584221245</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>2.67252597251133</v>
+        <v>8.250673213358301</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>32.42441596743949</v>
+        <v>22.53144687204111</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>41.59413395237583</v>
+        <v>28.0482000568959</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>9.188571720288822</v>
+        <v>10.36553056104234</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>31.09139259808637</v>
+        <v>27.22292070062933</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>38.25235553571467</v>
+        <v>36.65865396354502</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-0.3410421113576696</v>
+        <v>-3.140910359976704</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>23.87343745598083</v>
+        <v>15.94857077576057</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>31.79017985656511</v>
+        <v>26.63369170093198</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>16.23563486709777</v>
+        <v>13.15713379657829</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>37.42790400439267</v>
+        <v>30.17134024452143</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>44.35655738210697</v>
+        <v>39.69484966048596</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>37.96900876439739</v>
+        <v>35.54311692089057</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>53.06960553457964</v>
+        <v>49.66924899638502</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>60.13328384527678</v>
+        <v>56.06316355391097</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>11.76689177081946</v>
+        <v>7.625872629604753</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>45.0979873722289</v>
+        <v>31.91805291721648</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>55.99533897839416</v>
+        <v>43.33183626382738</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>49.67653654445142</v>
+        <v>46.20509560956631</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>44.52615869492824</v>
+        <v>49.82279847371346</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>59.82439095124641</v>
+        <v>57.62875411633773</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>64.56375224577232</v>
+        <v>57.53617649832989</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>18.75987578349941</v>
+        <v>18.35446322278404</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>53.3293255165629</v>
+        <v>53.75081321854837</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>61.18710936973395</v>
+        <v>55.95190942753312</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>19.86722378440786</v>
+        <v>11.69914765149132</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>44.90159835880083</v>
+        <v>44.24139974355808</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>51.11262980695848</v>
+        <v>49.57822961780295</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>14.85141227901149</v>
+        <v>6.5247618873093</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.52795472050217</v>
+        <v>43.37594123844174</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>49.3945083453806</v>
+        <v>49.41942201247716</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>32.98366873513852</v>
+        <v>30.13264692001811</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>57.20590050265447</v>
+        <v>62.97762415496712</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>63.21543921933267</v>
+        <v>68.36410002733386</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>59.11900975895462</v>
+        <v>77.70846016257337</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>76.70472658784234</v>
+        <v>84.58801184258067</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>82.78417619223488</v>
+        <v>88.82033684185626</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>31.83900487741307</v>
+        <v>27.61948242119669</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>69.93561064869954</v>
+        <v>77.64043005406009</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>79.38738328277896</v>
+        <v>81.48264161962263</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>50.4046443840322</v>
+        <v>48.5181797352539</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>45.25550571993912</v>
+        <v>46.45947232217928</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>61.04498912448602</v>
+        <v>52.6117534952924</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>65.88718314074653</v>
+        <v>56.29016849570469</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>19.44103082951358</v>
+        <v>10.46143233676694</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>54.87062605954439</v>
+        <v>50.02288696801877</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>62.77163914130882</v>
+        <v>55.27863267012205</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>20.01562809037344</v>
+        <v>5.553432336680196</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>45.59900364137543</v>
+        <v>40.73470034827007</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>51.80318834633839</v>
+        <v>48.35544652732519</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>16.40548402617155</v>
+        <v>2.475499872618652</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>44.68896988398121</v>
+        <v>42.31512786232889</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>51.54795414945539</v>
+        <v>50.94493883666664</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>34.58641671594847</v>
+        <v>27.77877800662062</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>59.33983926102951</v>
+        <v>63.2873206750274</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>65.34275335043506</v>
+        <v>70.97895904277816</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>61.2731602856684</v>
+        <v>78.10748862214743</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>79.3260576818473</v>
+        <v>83.24830249723254</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>85.46910133808289</v>
+        <v>90.54177926870516</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>33.92765243337276</v>
+        <v>20.42000369633861</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>72.85971242029693</v>
+        <v>76.76264089336112</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>82.3010658735201</v>
+        <v>82.59298405337546</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>43.61580588644529</v>
+        <v>42.54144814595851</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>36.22530829276842</v>
+        <v>31.44422436975021</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>49.97241246763416</v>
+        <v>39.51906394406925</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>55.85713813841535</v>
+        <v>46.81537140777958</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>10.87334226863015</v>
+        <v>7.277547825287126</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>42.53420792366608</v>
+        <v>41.54880290974017</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>51.90930021380129</v>
+        <v>51.52270660129425</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>16.21608435370329</v>
+        <v>5.795385785290311</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>39.39419873048801</v>
+        <v>37.4965361352607</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>46.66126401957929</v>
+        <v>50.39045163640667</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>9.19908363929571</v>
+        <v>3.479506954092894</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.82345321787514</v>
+        <v>39.37821408348104</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>42.85749618151814</v>
+        <v>53.97941597100704</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>26.19936603825741</v>
+        <v>24.38628054724329</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>48.6255567425689</v>
+        <v>56.38233166935255</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>55.65687039408175</v>
+        <v>69.39619315338187</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>49.25837631850774</v>
+        <v>65.21870630613122</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>65.39215643063218</v>
+        <v>76.07200954864942</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>72.65683452389369</v>
+        <v>88.16203826053437</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>22.36534695680454</v>
+        <v>17.43630149826435</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>57.63714826784738</v>
+        <v>67.74995250704211</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>68.69596344255798</v>
+        <v>81.75732188044226</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>5.601430654922501</v>
+        <v>-3.929708330383903</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>21.22992227930895</v>
+        <v>0.4577413882658732</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>26.83936390624383</v>
+        <v>6.503115508547314</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.6979312348665054</v>
+        <v>-17.73537944909613</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>17.97587882063202</v>
+        <v>-12.76698648051486</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>24.17734987394758</v>
+        <v>-5.921142950049472</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>11.7683461465461</v>
+        <v>-5.444919253519718</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>26.88983221273981</v>
+        <v>-1.016655170235044</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>32.31729734753742</v>
+        <v>5.084956199367106</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>25.32963292435161</v>
+        <v>-1.86401709275826</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>34.2085843219095</v>
+        <v>2.831918618726007</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>39.07823967007958</v>
+        <v>6.697122561285873</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>1.939262468867106</v>
+        <v>0.03221761679989399</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>25.72226061986082</v>
+        <v>-5.959093127779791</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>34.25855081650205</v>
+        <v>7.04426540113786</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>1.213115036566506</v>
+        <v>13.74565508163277</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>19.9427764156477</v>
+        <v>18.44243736204246</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>26.51870439599922</v>
+        <v>26.60650101094044</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-8.759727021065729</v>
+        <v>-3.575303272409847</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>11.94669272720805</v>
+        <v>1.743381055242452</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>19.21665464695019</v>
+        <v>10.98845029348805</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>3.994149396451315</v>
+        <v>4.922310820715765</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>22.11619983965367</v>
+        <v>9.66278503992946</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>11.67022909373504</v>
+        <v>-7.360624883379764</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>30.26835168767683</v>
+        <v>6.351715751599468</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>35.0508442090767</v>
+        <v>9.901633387153236</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>10.44197225450184</v>
+        <v>-18.10126598037496</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>31.002970404212</v>
+        <v>-2.573271094409549</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>36.29021482293248</v>
+        <v>1.446691970822378</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>22.95789245849974</v>
+        <v>-2.606914807978423</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>40.95267138027444</v>
+        <v>11.23298523088499</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>45.58001455337876</v>
+        <v>14.81592606718228</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>40.7491480983993</v>
+        <v>20.29048480560066</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>52.08675521932274</v>
+        <v>24.86554031999298</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>56.07100149559095</v>
+        <v>26.99229160232312</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>16.35481229790235</v>
+        <v>5.38312967666867</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>44.65691117566566</v>
+        <v>15.51122983223413</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>51.93477352650974</v>
+        <v>23.5911138094569</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>9.589581491623203</v>
+        <v>11.95739986908501</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>31.48729686094164</v>
+        <v>28.77600859317799</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>37.23230175977311</v>
+        <v>37.62836006400908</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>3.910459107356097</v>
+        <v>0.05276044759607856</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>28.11929432269755</v>
+        <v>19.09832511148398</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>34.47063621209097</v>
+        <v>29.12281852416706</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>18.18348780320633</v>
+        <v>15.39978120263727</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>39.37081706036674</v>
+        <v>32.37484546996234</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>10.41295652116596</v>
+        <v>-14.12121935645569</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.5726623187639</v>
+        <v>0.2664617373239118</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>34.38138965677003</v>
+        <v>6.117199390118802</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>10.37949639745935</v>
+        <v>-21.42071429060569</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>31.56134813886793</v>
+        <v>-5.127956956732231</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>36.87759623863278</v>
+        <v>1.497478245770679</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>22.96827162286955</v>
+        <v>-5.301182283641801</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>41.50641536789071</v>
+        <v>9.220340586132249</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>46.15914227112781</v>
+        <v>15.12550487746653</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>41.33802360858721</v>
+        <v>20.01156486799475</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>53.17970012616786</v>
+        <v>23.27250374092227</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>57.263172874338</v>
+        <v>28.205754978171</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>16.8753811920979</v>
+        <v>-2.580483468617576</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>46.0320815640552</v>
+        <v>10.52806372733889</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>53.34986731952721</v>
+        <v>20.82383970045089</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>8.734561078507442</v>
+        <v>5.624400477859652</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>31.20997330484782</v>
+        <v>23.69578331442997</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>36.99031996020557</v>
+        <v>36.15323430485873</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>4.392381651748675</v>
+        <v>-4.794361583989691</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>29.23988477286321</v>
+        <v>15.66985730747857</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>35.63029844419897</v>
+        <v>29.77680231569166</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>18.7284862183972</v>
+        <v>11.93416438353162</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>40.47477120742933</v>
+        <v>30.17365672696021</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>9.804760781704978</v>
+        <v>-17.26342655092586</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>26.60228876611908</v>
+        <v>-4.862481848859197</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>32.33940150988924</v>
+        <v>4.252783793438685</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>7.148302543957612</v>
+        <v>-21.66924557175347</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>25.71866845388873</v>
+        <v>-7.626288862842483</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>32.06128523757329</v>
+        <v>2.695931248635382</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>18.56041090641677</v>
+        <v>-7.821210493152808</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>34.81300849980572</v>
+        <v>4.695094318171044</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>40.36400295916361</v>
+        <v>13.89515495517792</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>33.35930661625467</v>
+        <v>10.3627092466177</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>43.19970191401494</v>
+        <v>12.37724036234989</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>48.28318468190055</v>
+        <v>21.61125306067779</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>9.358967412623407</v>
+        <v>-5.371485303684125</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>34.92097215345379</v>
+        <v>3.564537895468469</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>43.65154865798429</v>
+        <v>19.64078204329582</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>6.481057259123252</v>
+        <v>3.75651729166864</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>26.46696745345392</v>
+        <v>18.68482245813807</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>33.1990937188156</v>
+        <v>33.24862721087165</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-1.085544136938534</v>
+        <v>-5.103727854485427</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>21.00971093250525</v>
+        <v>11.80123771279206</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>28.45235655367292</v>
+        <v>28.29343928075197</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>12.03450951183181</v>
+        <v>6.462458036203358</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>31.37205466892131</v>
+        <v>21.52963414810385</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>28.47879744133267</v>
+        <v>17.90279510235884</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>21.40937099415261</v>
+        <v>13.82600718003109</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>33.23457652303966</v>
+        <v>24.33915677500137</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>39.69404455383038</v>
+        <v>29.93877381610377</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-2.487741370049307</v>
+        <v>9.496397463508959</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>26.01452952424361</v>
+        <v>13.70472146162647</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>36.02159141841614</v>
+        <v>24.10176255743448</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>5.041464192295335</v>
+        <v>23.57988857010464</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>26.06741823115324</v>
+        <v>31.28189879369516</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>33.6927330784802</v>
+        <v>41.56101874568168</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-5.469250066797972</v>
+        <v>3.251857910682336</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>17.77581673525177</v>
+        <v>11.97369312081906</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>26.20591948755621</v>
+        <v>23.61387376506981</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>10.65985028695023</v>
+        <v>18.64181745966413</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>31.00369911564316</v>
+        <v>26.41547583283015</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>38.38164031338975</v>
+        <v>36.79021756438269</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>32.41451074526645</v>
+        <v>34.3429604459713</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>46.54753273460402</v>
+        <v>44.04503972354217</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>54.31188571636132</v>
+        <v>52.68499593061591</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>7.065718821163127</v>
+        <v>17.69510935205764</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>39.06242317673996</v>
+        <v>27.24217544059163</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>50.66641243388329</v>
+        <v>42.39810130081372</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>44.92944764454556</v>
+        <v>41.30954616961377</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>40.13731361668731</v>
+        <v>41.21528447768814</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>54.53841585990129</v>
+        <v>49.3920904883132</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>60.10555040047778</v>
+        <v>54.87864842653191</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>15.22198607854281</v>
+        <v>21.90754926552351</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>48.54531226101827</v>
+        <v>46.42471522676458</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>57.28789882472556</v>
+        <v>55.66821367450834</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>16.98253524284059</v>
+        <v>26.93192244528744</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>41.14075943458846</v>
+        <v>49.8498414831341</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>47.84555808024929</v>
+        <v>58.05686408310315</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>11.1517735169965</v>
+        <v>14.21624836943098</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>37.85969526543477</v>
+        <v>40.16873446132752</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>45.27212906628084</v>
+        <v>49.46245085546506</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>28.84598527063952</v>
+        <v>37.31264994630286</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>52.22048994321256</v>
+        <v>60.44376351953485</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>58.70777750324828</v>
+        <v>68.72713215979199</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>55.11114374153213</v>
+        <v>78.22436508225046</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>71.73143971019199</v>
+        <v>82.6185543614864</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>78.53142011012216</v>
+        <v>89.7266550825956</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.69616934640045</v>
+        <v>41.79538817323768</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>65.45947415485243</v>
+        <v>75.83519328408617</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>75.66264779598229</v>
+        <v>86.20102820062327</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>46.06759702245368</v>
+        <v>42.74699347785726</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>41.26741114792887</v>
+        <v>36.51598144797128</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>56.17432920327059</v>
+        <v>43.3782907634573</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>61.84949616793237</v>
+        <v>52.85886694097429</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>16.29461536663275</v>
+        <v>13.22630068326372</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>50.49706434692054</v>
+        <v>41.9339645944702</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>59.29343299979703</v>
+        <v>54.76501353996079</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>17.44371634048715</v>
+        <v>20.12249609222861</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>42.16319854539317</v>
+        <v>45.83533728489513</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>48.86820220288621</v>
+        <v>56.74966900641593</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>13.05877967234059</v>
+        <v>9.316405951604114</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>40.3871955008568</v>
+        <v>38.43389049868932</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>47.79985595080994</v>
+        <v>50.79339145238774</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>30.81184410701344</v>
+        <v>34.10290452084632</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>54.72939896187704</v>
+        <v>60.05494008463043</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>61.21688488293346</v>
+        <v>71.07080265965271</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>57.636695812959</v>
+        <v>77.59440767821232</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>74.73838790166484</v>
+        <v>80.66060113540222</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>81.6073370816347</v>
+        <v>91.11517513899128</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>31.14598792847768</v>
+        <v>34.1939397666642</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>68.76339936539058</v>
+        <v>74.53397236808283</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>78.96688498774766</v>
+        <v>87.55766654515052</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>37.88578331044209</v>
+        <v>36.22891907172813</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>30.76014505470531</v>
+        <v>21.59801203461275</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>43.60994978005971</v>
+        <v>28.5955936619617</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>50.32253830968051</v>
+        <v>42.17208455319793</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>6.241816363408555</v>
+        <v>8.150989254378846</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>36.6558113042924</v>
+        <v>31.82913207559582</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>46.90057134700378</v>
+        <v>48.36642404392518</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>12.51062593621336</v>
+        <v>18.28862425082653</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>34.81227412850463</v>
+        <v>40.62036118836568</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>42.56383457146941</v>
+        <v>55.6039688149633</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>4.554610909088312</v>
+        <v>8.462453973324909</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.21001066253691</v>
+        <v>33.75114145504359</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>37.77968317222755</v>
+        <v>50.71873209420831</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>21.11634751421502</v>
+        <v>28.65074246000141</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>42.69450556669736</v>
+        <v>51.19022095876274</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>50.19459681329367</v>
+        <v>66.31321398335838</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>44.20821122129529</v>
+        <v>62.13296721286096</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>59.37613328213385</v>
+        <v>69.02509223010443</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>67.36363385381193</v>
+        <v>84.59114776532272</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>18.16609064948855</v>
+        <v>26.87824068362225</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>52.10411041934256</v>
+        <v>61.5436303462856</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>63.90021666638967</v>
+        <v>81.3307310352787</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>0.8366919596845861</v>
+        <v>5.589341082248026</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>15.30378532216663</v>
+        <v>19.84255757437757</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.31101498541651</v>
+        <v>26.00724181168778</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-4.865796872157933</v>
+        <v>-10.54182712036068</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>11.12817662463822</v>
+        <v>5.5986611223104</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>16.66387730201687</v>
+        <v>12.57961265047934</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>5.472457397647366</v>
+        <v>5.486933687191989</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>19.47022224641359</v>
+        <v>19.87274109487863</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>24.31501183985745</v>
+        <v>26.09477246696119</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>18.31815016727765</v>
+        <v>20.59631710194455</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>26.27203346239098</v>
+        <v>28.5789123366255</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>30.48879118420035</v>
+        <v>31.52197071980217</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-3.761384557532761</v>
+        <v>3.024019379425756</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>18.25423044611178</v>
+        <v>16.61186155568616</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>25.87409144644413</v>
+        <v>26.18497223663291</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-3.105820689989915</v>
+        <v>13.39232686805586</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>14.28872990603296</v>
+        <v>26.86418144093439</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>20.23222251668714</v>
+        <v>35.76411523683515</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-13.21039071646672</v>
+        <v>-7.330827207174952</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>6.020008524817837</v>
+        <v>7.924838800603549</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>12.59078683608206</v>
+        <v>18.00321492522106</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-1.297854702995101</v>
+        <v>6.017311612892069</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>15.53239742799329</v>
+        <v>19.6144884618341</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>5.696345506047961</v>
+        <v>4.505056077849332</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>22.99750087061715</v>
+        <v>28.24986612086304</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>27.21297744641238</v>
+        <v>31.47770174270592</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>3.3871364985079</v>
+        <v>-6.916967754254014</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>22.51428342648165</v>
+        <v>19.97189817543232</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>27.17466813129662</v>
+        <v>23.62713227170862</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>15.09681885640077</v>
+        <v>11.87998882095202</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>31.83670560056794</v>
+        <v>35.8456855743447</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>35.91542745263659</v>
+        <v>39.10354822065617</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>31.86643145051439</v>
+        <v>45.66351606723686</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>42.16245902046535</v>
+        <v>52.88142097172485</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>45.54356519675889</v>
+        <v>53.59696214418486</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>8.804405537848893</v>
+        <v>10.58059479715653</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>35.13281623383482</v>
+        <v>40.83826495096922</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>41.54780969688022</v>
+        <v>44.75048998501593</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>4.008049194673012</v>
+        <v>12.53938852915446</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>24.42560136691308</v>
+        <v>38.4303051700047</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.57271937302001</v>
+        <v>47.22128828965646</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-2.116387627723064</v>
+        <v>-2.0011899612233</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>20.45606560321806</v>
+        <v>27.31794904605161</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>26.14641866253117</v>
+        <v>37.27294830973268</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>11.24217281411194</v>
+        <v>17.85306299021902</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>30.99735700581868</v>
+        <v>43.98483055365631</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>4.319895591766723</v>
+        <v>-2.138100504425768</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>22.15427910512537</v>
+        <v>22.00741096244366</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>26.39586363453817</v>
+        <v>27.53821303628194</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>3.131462246120833</v>
+        <v>-9.749869127018282</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>22.84811507315646</v>
+        <v>17.59275519637128</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>27.53736320670317</v>
+        <v>23.85589207460502</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>14.90775267209627</v>
+        <v>9.545658107531128</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>32.16356905399054</v>
+        <v>33.91578382015592</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>36.26755188877813</v>
+        <v>39.49803632352456</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>32.21590760555016</v>
+        <v>45.41497075703479</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>42.98907044105857</v>
+        <v>51.29919190228448</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>46.46781246135093</v>
+        <v>54.59399485556924</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>9.088665340345573</v>
+        <v>3.302059640096804</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>36.22852760705797</v>
+        <v>36.14415733139228</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>42.6832514182113</v>
+        <v>42.14690536977741</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>3.014127642857339</v>
+        <v>5.912616092531323</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>23.98034916665647</v>
+        <v>32.76704824788789</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>29.16204040111741</v>
+        <v>45.13288352475779</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-1.857668940010997</v>
+        <v>-6.805655472460952</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>21.32136108195928</v>
+        <v>23.60457836538634</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>27.04993628335201</v>
+        <v>37.60777680184263</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>11.55897103573442</v>
+        <v>14.1958413207134</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>31.84502513823995</v>
+        <v>41.3000875266879</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>4.480288823104157</v>
+        <v>-4.937875317661433</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>20.053164499648</v>
+        <v>16.77482862168667</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>25.17559431652744</v>
+        <v>26.2947977242119</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>0.8812721702485788</v>
+        <v>-11.16977303081606</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>18.09773401223184</v>
+        <v>13.41791514771813</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>23.76079325140527</v>
+        <v>24.1984255998477</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>11.53489775153158</v>
+        <v>6.230121268084186</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>26.60257211276034</v>
+        <v>28.14480819815449</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>31.55882463940497</v>
+        <v>37.75333705980803</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>25.54241807602362</v>
+        <v>34.81886646663162</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>34.40098799547397</v>
+        <v>40.40748820065086</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>38.81670383550784</v>
+        <v>48.24723544602237</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>2.887445133644153</v>
+        <v>0.9611942214618168</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>26.58580850244346</v>
+        <v>28.89203422606658</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>34.38097785028741</v>
+        <v>41.41008596809095</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>1.542104277344325</v>
+        <v>3.885607331043325</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>20.12512920857265</v>
+        <v>26.80359658533085</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>26.21099862100966</v>
+        <v>42.37447611574839</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-6.305895141838686</v>
+        <v>-7.963918584843771</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>14.23841191372941</v>
+        <v>17.98864702087212</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>20.96659370178075</v>
+        <v>35.62127037486813</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>5.94598371458828</v>
+        <v>7.898602948367664</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>23.92615475853202</v>
+        <v>31.02978739123553</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>21.28307656303539</v>
+        <v>28.59721412236772</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>15.15694847927074</v>
+        <v>24.22937881894542</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>25.84830121945613</v>
+        <v>38.92514601738451</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>31.61222287005599</v>
+        <v>42.53183428647344</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-7.499594406789107</v>
+        <v>3.781167452672186</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>18.97094252059208</v>
+        <v>24.69813305381214</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>28.0155820908679</v>
+        <v>33.91238022601279</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>0.7153313777041053</v>
+        <v>13.46893016024579</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>20.37855262532263</v>
+        <v>29.71322858695458</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>27.44627174557554</v>
+        <v>41.4865924905021</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-10.03847663705719</v>
+        <v>-8.793766987211175</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>11.70003237897345</v>
+        <v>9.601442817640983</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>19.513689860807</v>
+        <v>22.93372060678493</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>5.134479786481037</v>
+        <v>9.289455223284055</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>24.15980438328232</v>
+        <v>25.68486665680859</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>30.99823887621367</v>
+        <v>37.56775258298345</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>25.63964271671669</v>
+        <v>32.23271509286232</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>38.63065541080681</v>
+        <v>46.85821714917405</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>45.78771136515654</v>
+        <v>56.64376727632572</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>1.500707871098566</v>
+        <v>1.299329034112755</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>31.42364386608699</v>
+        <v>27.16935959223377</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>42.17909965853557</v>
+        <v>42.19209950197401</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>35.97749680951979</v>
+        <v>52.85759202145233</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>31.91339504685022</v>
+        <v>52.9745488788497</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>45.05818090601836</v>
+        <v>64.80767185472492</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>49.97923311947781</v>
+        <v>67.70917565089903</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>8.255417480433504</v>
+        <v>16.4245544661771</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>39.32627301984409</v>
+        <v>58.30987904326136</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>47.15901215835387</v>
+        <v>65.27887141302941</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>11.39955288196371</v>
+        <v>17.50114510903743</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>34.05575455276824</v>
+        <v>49.16950431386147</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>40.23892695436291</v>
+        <v>57.87169624508716</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>5.001642210457106</v>
+        <v>3.846482590035105</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>30.04901558268269</v>
+        <v>39.70805669102761</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>36.88476987273872</v>
+        <v>49.56250790412683</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>21.6715384861655</v>
+        <v>29.16490258000699</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>43.59274791007043</v>
+        <v>61.12785751649041</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>49.57533135847501</v>
+        <v>69.91100181353116</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>46.37565255243896</v>
+        <v>76.99132051841408</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>61.73995743651479</v>
+        <v>85.93408216504712</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>67.98286557353819</v>
+        <v>93.52629664140716</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>21.18954451234689</v>
+        <v>25.15518767887667</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>55.66711377466271</v>
+        <v>76.07727192770491</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>65.0764912967343</v>
+        <v>85.00126457807397</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>36.85861657651762</v>
+        <v>53.78095630647516</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>32.77637280526564</v>
+        <v>48.02259887002498</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>46.40035738358439</v>
+        <v>58.53651191468913</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>51.42715614499045</v>
+        <v>65.19780604799327</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>9.063677159208595</v>
+        <v>7.954186889817571</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>40.96948225659683</v>
+        <v>53.62803346341194</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>48.85483395975926</v>
+        <v>64.02609980283573</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>11.69740546488334</v>
+        <v>9.989062278610735</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>34.88692222589711</v>
+        <v>44.03894640159928</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>41.07019386668986</v>
+        <v>55.45108727071948</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>6.659455807025732</v>
+        <v>-1.551688059215667</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>32.29643119567265</v>
+        <v>37.00674923490519</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>39.13229519879113</v>
+        <v>49.92997436261325</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>23.38445936807251</v>
+        <v>25.20278759184972</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>45.82168255065143</v>
+        <v>59.56942164373304</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>51.80436201882526</v>
+        <v>71.08772424884526</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>48.6126298517116</v>
+        <v>75.36758676265632</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>64.43332785850077</v>
+        <v>82.93438864001952</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>70.74351927193227</v>
+        <v>93.66390305664517</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>23.35495913907032</v>
+        <v>17.09412673759893</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>58.64411227711807</v>
+        <v>73.7676672765385</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>68.05364081860741</v>
+        <v>85.23862672692952</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.81459183439487</v>
+        <v>46.74551543174694</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>23.63328108869425</v>
+        <v>31.70809884647024</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>35.28892375466162</v>
+        <v>43.30143499093955</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>41.28933432992417</v>
+        <v>54.33616257390115</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>0.3897928569628313</v>
+        <v>3.303838470138242</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>28.66891653705317</v>
+        <v>42.80732046471397</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>37.93022111217661</v>
+        <v>58.07595884866097</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>7.507921508751427</v>
+        <v>7.404449048148702</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>28.37990325754253</v>
+        <v>37.20754765283797</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>35.56219195486766</v>
+        <v>54.0396973881129</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-0.8453592155144314</v>
+        <v>-4.130095483664252</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>22.229484815113</v>
+        <v>29.61923842210507</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>30.16980373012576</v>
+        <v>48.68013706565308</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>14.73232623270263</v>
+        <v>18.08586535934604</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>34.92719780276045</v>
+        <v>48.16620806066022</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>41.87648510893359</v>
+        <v>65.15493930477592</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>36.49720969782383</v>
+        <v>57.60705653493574</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>50.46476473447836</v>
+        <v>69.72543010059081</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>57.83039852626068</v>
+        <v>86.04366864796475</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>11.70196250433012</v>
+        <v>9.455640969439624</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>43.46435616774376</v>
+        <v>59.20940291500411</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>54.39416071406744</v>
+        <v>78.92119705140894</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>5.707682519968693</v>
+        <v>4.102321624331754</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>21.94764800915114</v>
+        <v>19.74865185761417</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>27.47243482500982</v>
+        <v>26.07180141624168</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>0.6030822684657</v>
+        <v>-5.60784566863369</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>18.55703964710988</v>
+        <v>12.11021883355223</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>24.66492128541196</v>
+        <v>19.27061811353348</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>11.96187108261041</v>
+        <v>9.358204049384067</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>27.67499412494733</v>
+        <v>25.15008467487617</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>33.02055074439477</v>
+        <v>31.5320554960334</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>26.33467765208234</v>
+        <v>23.47261311400625</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>35.6643551726342</v>
+        <v>30.15471707161722</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>40.48517615496591</v>
+        <v>31.39965993181243</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>2.43835395106931</v>
+        <v>5.708645137022931</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>27.15187579848421</v>
+        <v>16.70286939275731</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>35.55934068915909</v>
+        <v>27.23342230260537</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>5.009750412783511</v>
+        <v>8.069005656168024</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>24.43324109189639</v>
+        <v>22.79558100305203</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>30.95244379488692</v>
+        <v>28.2109415081325</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-4.695519256111485</v>
+        <v>-8.587222515300429</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>16.77795764441794</v>
+        <v>8.08930213949812</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>23.98520741044847</v>
+        <v>14.22171180368514</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>8.46022545530084</v>
+        <v>4.461963616362013</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>27.25359660845694</v>
+        <v>19.32553331180764</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>11.43411809446823</v>
+        <v>5.506751382030355</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>30.70935795065342</v>
+        <v>31.96953431561377</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>35.39250461312705</v>
+        <v>34.17124759441525</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>10.03719884910646</v>
+        <v>0.4705133694745456</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>31.34677829812886</v>
+        <v>30.43723961990697</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>36.5241917373389</v>
+        <v>32.93048227217609</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>22.85902764299926</v>
+        <v>18.84117245380147</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>41.50895739393096</v>
+        <v>45.55012611097108</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>46.04017759767915</v>
+        <v>47.77232088456975</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>41.47790164125105</v>
+        <v>53.48095048657724</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>53.31609515993986</v>
+        <v>59.08782705755489</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>57.24222438880605</v>
+        <v>57.51079822423502</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>16.5376464332301</v>
+        <v>15.85054587139331</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>45.87016327985187</v>
+        <v>45.34127157820781</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>52.99684390209841</v>
+        <v>48.72271830302583</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>13.14145710507383</v>
+        <v>7.919955138268406</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>35.8037050147033</v>
+        <v>36.51034430249155</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>41.47515433494576</v>
+        <v>40.5611518703555</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>7.770956893772322</v>
+        <v>-2.163443174758651</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>32.82501463452589</v>
+        <v>30.21260614809038</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>39.09503777211313</v>
+        <v>34.79978209946374</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>22.46817696575071</v>
+        <v>18.22773001063988</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>44.39523648180689</v>
+        <v>47.08408201051154</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>10.08484974661985</v>
+        <v>-0.6216820608142264</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.92827101233194</v>
+        <v>26.59658535248086</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>34.63811544207691</v>
+        <v>31.02610450699384</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>9.899103660687103</v>
+        <v>-1.536927994637434</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>31.83683129246234</v>
+        <v>29.28531661328614</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>37.04376022393211</v>
+        <v>34.30134944163538</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>22.79134276524235</v>
+        <v>17.52787053079901</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>41.99102149219594</v>
+        <v>44.99933658161851</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>46.54807335810948</v>
+        <v>49.4700614527861</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>41.98720094810034</v>
+        <v>54.65696857855805</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>54.33446806934448</v>
+        <v>58.81994777490925</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>58.36096307454056</v>
+        <v>59.97557626597268</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>16.97682385113242</v>
+        <v>8.868005900262862</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>47.17398315571123</v>
+        <v>41.5832888441698</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>54.34129168786181</v>
+        <v>46.98541835310292</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>12.17703854187521</v>
+        <v>1.748150795359575</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>35.42388110533518</v>
+        <v>31.72977441693174</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>41.1307673404644</v>
+        <v>39.3240050673899</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>8.15803219079381</v>
+        <v>-6.323703994891158</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>33.85838363861602</v>
+        <v>27.62779346726648</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>40.16758375967282</v>
+        <v>36.22757798562579</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>22.91553527006093</v>
+        <v>15.50118351246523</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>45.40822454263719</v>
+        <v>45.76171196425815</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>9.919665634171622</v>
+        <v>-5.174664337470539</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>27.35083994075354</v>
+        <v>19.34020512593183</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>33.00140557507211</v>
+        <v>28.60691748801938</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>7.095720163521571</v>
+        <v>-3.791844557862575</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>26.36660844026179</v>
+        <v>23.96904454131692</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>32.61354379436459</v>
+        <v>34.4627644683973</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>18.79736324425683</v>
+        <v>12.88494422132507</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>35.66305097211897</v>
+        <v>37.62786389280792</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>41.13030600600277</v>
+        <v>46.98078008663732</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>34.42293770375366</v>
+        <v>42.11566871275451</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>44.73097351574245</v>
+        <v>45.97881960941621</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>49.76603751172595</v>
+        <v>52.38536639991307</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>9.903037301217203</v>
+        <v>5.30980739214278</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>36.42930715929259</v>
+        <v>32.73084876942552</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>45.02817871151277</v>
+        <v>45.85813256709166</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>10.32927116187564</v>
+        <v>-0.9022729243374208</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>31.03318450377941</v>
+        <v>24.99054211665123</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>37.70661024440408</v>
+        <v>36.64932817192486</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>3.070012151377467</v>
+        <v>-7.589444401938639</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>25.95904956708727</v>
+        <v>21.73184437308568</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>33.33679931640465</v>
+        <v>34.93437303409745</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>16.59476118674844</v>
+        <v>8.528712692352759</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>36.62701667497307</v>
+        <v>34.66239631584442</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>33.56130916352714</v>
+        <v>24.79127034823867</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>26.75380903290591</v>
+        <v>21.89783665918258</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>39.07867579058184</v>
+        <v>35.4754473027504</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>45.54111897773676</v>
+        <v>35.85194608301438</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>2.169084061667856</v>
+        <v>1.993844615879809</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>31.72720483299327</v>
+        <v>21.92923696686102</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>41.64794379856475</v>
+        <v>27.24941009526878</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>6.886360353089403</v>
+        <v>6.514527690373374</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>28.64471519841276</v>
+        <v>24.11462387033997</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>36.34297375323079</v>
+        <v>33.90043824803284</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-3.458430331138754</v>
+        <v>-11.29688789830877</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>20.59633602797842</v>
+        <v>8.633641159425093</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.10708108313664</v>
+        <v>19.71519752218136</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>13.08449263253658</v>
+        <v>5.665974111679464</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>34.1369823752741</v>
+        <v>23.42979564217405</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>41.58550090594196</v>
+        <v>33.30664281155418</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>35.74766921714509</v>
+        <v>29.19274092600532</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>50.4404175009452</v>
+        <v>43.80225693940174</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>58.36768621737409</v>
+        <v>50.88171701354499</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>9.749677167317044</v>
+        <v>-3.230986134789891</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>42.86092843148678</v>
+        <v>23.0439045128847</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>54.57592136717294</v>
+        <v>35.60062597761414</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>49.88269771174092</v>
+        <v>51.1725723206863</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>45.3177820844118</v>
+        <v>54.27065450425827</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>60.27127345423524</v>
+        <v>64.16427180939043</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>65.82962165558976</v>
+        <v>63.24579921739171</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>19.66784482130013</v>
+        <v>16.36697640604846</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>54.15461507948194</v>
+        <v>59.29766259024727</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>62.78526683644995</v>
+        <v>60.80236197709151</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>18.69840490617841</v>
+        <v>9.730416644410592</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>43.6631240021441</v>
+        <v>44.52633392034245</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>50.42151317017844</v>
+        <v>50.02785571568761</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>13.08148037780734</v>
+        <v>1.086478666774777</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>40.68101579045265</v>
+        <v>40.48973153921712</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>48.1526961429778</v>
+        <v>46.71971113038967</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>31.21690939651892</v>
+        <v>25.99693950648446</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>55.37174538638536</v>
+        <v>61.11654670403608</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>61.91088493296238</v>
+        <v>66.66924654836134</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>58.4120224983939</v>
+        <v>76.71801671412712</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>75.64851761151846</v>
+        <v>84.60758066017128</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>82.59665882115382</v>
+        <v>88.80572038175143</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>31.30166130360418</v>
+        <v>21.20139728138156</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>69.292267330675</v>
+        <v>75.08490142189885</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>79.57699351859996</v>
+        <v>79.90642395250829</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>50.92997307473487</v>
+        <v>53.42658814202224</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>46.34885836988801</v>
+        <v>50.29395952401562</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>61.81335290016816</v>
+        <v>58.69226862299872</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>67.48032724402928</v>
+        <v>61.75524568063841</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>20.64031590287937</v>
+        <v>8.129136239692546</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>56.01670583168004</v>
+        <v>55.59487271599032</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>64.70128448712919</v>
+        <v>60.48362741906273</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>19.10013288268314</v>
+        <v>2.517614548903016</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>44.63324091787594</v>
+        <v>40.19474004009686</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>51.39062803248983</v>
+        <v>48.35070246677385</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>14.94643760460274</v>
+        <v>-3.750668060210725</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>43.17435063271746</v>
+        <v>38.91529448543523</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>50.64492317350428</v>
+        <v>48.15118981671827</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>33.13885742682191</v>
+        <v>22.8939333246278</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>57.84364318991805</v>
+        <v>60.92155125148308</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>64.38181319079436</v>
+        <v>69.15338472986144</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>60.89227732642367</v>
+        <v>76.33222817583525</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>78.61564508126509</v>
+        <v>82.6277649851622</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>85.6316874569161</v>
+        <v>90.113819211772</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>33.70444929384152</v>
+        <v>13.45888254391209</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>72.56001359171675</v>
+        <v>73.95162059455303</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>82.8432148829819</v>
+        <v>81.23909751490271</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>43.08394910172011</v>
+        <v>46.42963853034453</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>36.21556304537168</v>
+        <v>32.47153930330931</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>49.58318482823626</v>
+        <v>42.29347731490162</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>56.29926282289432</v>
+        <v>50.47484089970067</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>10.99375735424541</v>
+        <v>2.832782989916371</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>42.50038925214035</v>
+        <v>43.94874848137957</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>52.65582049045828</v>
+        <v>54.84096469194994</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>14.43679813876294</v>
+        <v>1.078651895420794</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>37.4960097270168</v>
+        <v>34.19257398801425</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>45.31899135986131</v>
+        <v>48.62737187440062</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>6.688529852403721</v>
+        <v>-4.503976751842668</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>32.18144745228766</v>
+        <v>32.99456755914208</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>40.83007905828398</v>
+        <v>49.34068043121874</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>23.66837541059728</v>
+        <v>17.19706735536864</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>45.97952066437855</v>
+        <v>50.61903256583106</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>53.54871611844007</v>
+        <v>65.18811053339378</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>47.68571749416863</v>
+        <v>59.23128134383555</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>63.43309283741418</v>
+        <v>70.69784418709479</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>71.58443971716298</v>
+        <v>84.56599013952675</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>20.97829426474775</v>
+        <v>7.115076918611738</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>56.06915266282275</v>
+        <v>60.22129927685216</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>67.97394566401552</v>
+        <v>76.98175429157504</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>8.059449503989935</v>
+        <v>16.34028861869367</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>23.39219000862923</v>
+        <v>28.37100205299614</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.38290235627748</v>
+        <v>34.29269845023757</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>3.166878911441231</v>
+        <v>18.26089397233262</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>20.11786133203225</v>
+        <v>31.88459700417249</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>26.74084302673056</v>
+        <v>38.59038661517398</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>13.88424227629976</v>
+        <v>25.84045610147534</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>28.71957171626094</v>
+        <v>37.98308555907776</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>34.51593872778895</v>
+        <v>43.95986869041649</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>27.59598357866205</v>
+        <v>31.56119053320134</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>35.92693185874973</v>
+        <v>37.62780073476206</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>41.45840489759844</v>
+        <v>39.94534227072084</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>4.097080638364931</v>
+        <v>25.37383173413861</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>27.43001306944425</v>
+        <v>26.73332756775167</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>36.54651030484787</v>
+        <v>39.27989548805328</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>6.089485012061014</v>
+        <v>16.69625037779653</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>24.546901252282</v>
+        <v>26.00768267400574</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>31.61601107882077</v>
+        <v>31.679587181644</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-3.79026011995726</v>
+        <v>13.59790003561131</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>16.6151813027836</v>
+        <v>24.14226127381756</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>24.43037626826291</v>
+        <v>30.56518399232318</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>8.652338145018575</v>
+        <v>14.43437007675348</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>26.51097538285149</v>
+        <v>23.83242221304876</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>14.8164116322845</v>
+        <v>16.70822546161521</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>33.17236674450835</v>
+        <v>38.9960262794134</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>38.35015975092981</v>
+        <v>41.57627319696032</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>13.77987844774675</v>
+        <v>22.62393779790258</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>34.07315037302811</v>
+        <v>47.8628715679224</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>39.79741592117097</v>
+        <v>50.78476958714102</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>25.96255050377447</v>
+        <v>33.578291403223</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>43.72301812484862</v>
+        <v>56.07342506535007</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>48.73283779791643</v>
+        <v>58.67767479667204</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>44.03125170614356</v>
+        <v>59.53626656568071</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>54.86392749433406</v>
+        <v>65.35206491109879</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>59.52176462202883</v>
+        <v>65.49024606851751</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>19.5177461429184</v>
+        <v>35.31396514767032</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>47.45132137116043</v>
+        <v>53.87241209588194</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>55.33074086074231</v>
+        <v>60.53582896075508</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>15.25159364506894</v>
+        <v>15.35522792743382</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>36.93599893422382</v>
+        <v>37.50646517968642</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>43.18834096235406</v>
+        <v>42.93294163250908</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>9.857680168664983</v>
+        <v>18.45812410680356</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>33.8306922173764</v>
+        <v>43.54241189741855</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>40.74291640680265</v>
+        <v>49.68740937460399</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>23.84116707477942</v>
+        <v>26.34926201351951</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>44.82210626676276</v>
+        <v>48.70656172399694</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>13.75212787184461</v>
+        <v>11.11792222278736</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>32.6890914230065</v>
+        <v>34.38379428943148</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>37.89827027368536</v>
+        <v>39.09013519845466</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>13.95977547268703</v>
+        <v>20.65490582935363</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>34.89537639529877</v>
+        <v>47.00141749248978</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>40.65434029981876</v>
+        <v>52.33092610902058</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>26.22502734021152</v>
+        <v>32.43396123380256</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>44.54765484369284</v>
+        <v>55.91626467789871</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>49.58784216950887</v>
+        <v>60.66638644511696</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>44.88607153798917</v>
+        <v>60.75792759062821</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>56.2435374793148</v>
+        <v>65.26874662276978</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>61.00451866411282</v>
+        <v>68.22166963084777</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>20.29721252242592</v>
+        <v>28.58838265273683</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>49.11495002051902</v>
+        <v>50.53188405560736</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>57.04213160345557</v>
+        <v>59.23345629305983</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>14.5836070560575</v>
+        <v>9.53296839756462</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>36.86585062880759</v>
+        <v>33.22977235811356</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>43.15840997642232</v>
+        <v>42.10436344050635</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>10.57681908873451</v>
+        <v>14.26154547567578</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>35.21076622810803</v>
+        <v>41.09604882621929</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>42.16745233713571</v>
+        <v>51.14572660266195</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>24.63314375612444</v>
+        <v>23.78265674620946</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>46.19252669639002</v>
+        <v>47.69990083931364</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>12.73184632187577</v>
+        <v>7.060034636648144</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.25570841269154</v>
+        <v>28.16844747692695</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>35.38926869344864</v>
+        <v>36.79112993952541</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>10.16783101971429</v>
+        <v>19.58363395059215</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>28.43564790065179</v>
+        <v>43.48701670339331</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>35.21655392741832</v>
+        <v>53.25143058040706</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>21.23582400721845</v>
+        <v>28.96702291830257</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>37.22363373135766</v>
+        <v>50.27179731570553</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>43.15821453101175</v>
+        <v>58.97469250522585</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>36.21061936780314</v>
+        <v>49.43631684223827</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>45.52263741491679</v>
+        <v>52.76777979020197</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>51.28679693138965</v>
+        <v>60.5969558267867</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>12.08663180955663</v>
+        <v>24.63623240598655</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>37.23217950527854</v>
+        <v>42.24877038580183</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>46.56605869990581</v>
+        <v>57.52155412219415</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>11.88273955573099</v>
+        <v>8.554082386594967</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>31.62020292406739</v>
+        <v>29.12340725277621</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>38.86215817851543</v>
+        <v>40.84291111496985</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>4.495753313475973</v>
+        <v>15.093203031774</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>26.31634008219778</v>
+        <v>38.38611704494197</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>34.32262285804663</v>
+        <v>51.65740317197738</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>17.31439645056046</v>
+        <v>19.2603910760229</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>36.41155467155227</v>
+        <v>40.02106261948543</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>33.35075546601608</v>
+        <v>29.55708975926442</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>26.19185953736383</v>
+        <v>22.84142367096138</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>37.49483983960302</v>
+        <v>34.08776465673661</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>44.74616695485115</v>
+        <v>37.43535190490701</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>2.050109934596145</v>
+        <v>13.32273220954148</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>30.13808584829943</v>
+        <v>22.16234888487526</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>40.89565797838318</v>
+        <v>29.33610739924888</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>8.605063066111551</v>
+        <v>20.86674604958588</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.3470598101852</v>
+        <v>31.76056302409163</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>37.48275836804906</v>
+        <v>40.0002344084792</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-1.631042863723042</v>
+        <v>16.07795308520792</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>21.30009733723316</v>
+        <v>28.41422292941289</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>30.29445051185577</v>
+        <v>37.74491114120332</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>14.1733610970749</v>
+        <v>22.20291042645512</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>34.24246451977282</v>
+        <v>33.19806741550119</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>42.11423201584587</v>
+        <v>41.51438855633802</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>36.14553373895488</v>
+        <v>38.24556890812482</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>49.74880597054704</v>
+        <v>48.809480767718</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>58.32694082902667</v>
+        <v>55.35057470712633</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>10.61956161027855</v>
+        <v>16.72133796823394</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>42.18414775642369</v>
+        <v>29.56484225918588</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>54.56482456190673</v>
+        <v>42.27321593642569</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>50.87161540249507</v>
+        <v>54.1835181145606</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>46.04859000318363</v>
+        <v>52.47371964154321</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>59.97377583497855</v>
+        <v>60.88423670186666</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>66.34374584556332</v>
+        <v>63.58648653268361</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>20.87280582083631</v>
+        <v>27.17298577451747</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>53.87152273429221</v>
+        <v>57.11443163331879</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>63.38616064486166</v>
+        <v>62.08425381107438</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>21.37536620004052</v>
+        <v>23.48087926114779</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>45.3086475251113</v>
+        <v>50.26060900213422</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>52.53491324692955</v>
+        <v>55.72993434703172</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>16.00976611530852</v>
+        <v>26.81397501296112</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>42.46900416773755</v>
+        <v>57.13961507216625</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>50.45794151262973</v>
+        <v>63.33313507331033</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>33.401646653113</v>
+        <v>40.85507173612686</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>56.55850585446068</v>
+        <v>67.88392060658389</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>63.55034352180088</v>
+        <v>73.40412449214917</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>60.01001128024822</v>
+        <v>83.13181004582837</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>76.14700013127025</v>
+        <v>87.75265281364177</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>83.7667961397574</v>
+        <v>92.20806195467135</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>33.39929603669987</v>
+        <v>40.8603909636938</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>69.8202891294227</v>
+        <v>79.03045387411375</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>80.81701667236813</v>
+        <v>86.10708228763063</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>52.28094845727105</v>
+        <v>56.65704803508591</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>47.43926733484942</v>
+        <v>48.60892283438595</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>61.89133182662388</v>
+        <v>55.6368819280174</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>68.37282984582252</v>
+        <v>62.36434522766048</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>22.19930025078812</v>
+        <v>19.236535022851</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>56.1077906174375</v>
+        <v>53.75594162232754</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>65.68363011149364</v>
+        <v>62.13846933339008</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>22.0376568001155</v>
+        <v>17.03330067192786</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>46.55188561403443</v>
+        <v>46.82544197367449</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>53.78245090823657</v>
+        <v>54.94398146375445</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>18.16580032232016</v>
+        <v>22.31815479415671</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>45.26729998921785</v>
+        <v>56.05508053792121</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>53.26099069022843</v>
+        <v>65.2485977527634</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>35.62610973701504</v>
+        <v>38.31656386588195</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>59.34506984796788</v>
+        <v>68.38584733366065</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>66.34106760480644</v>
+        <v>76.57990974760514</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>62.80614735576597</v>
+        <v>83.1784404183515</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>79.44500334992541</v>
+        <v>86.3497403170839</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>87.13625703910662</v>
+        <v>94.18315683173515</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>36.1116896141253</v>
+        <v>33.80835455115025</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>73.41675222456844</v>
+        <v>78.58624214753209</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>84.42002273560907</v>
+        <v>88.25454781535082</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>43.41857288572618</v>
+        <v>51.84958746987407</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>36.18867672433198</v>
+        <v>34.06094305079336</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>48.53698747739458</v>
+        <v>41.54533941531186</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>56.06198065732839</v>
+        <v>53.08946475434973</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>11.4077101567163</v>
+        <v>14.98412697377856</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>41.44362571891159</v>
+        <v>44.6108201639382</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>52.46422915049172</v>
+        <v>57.54548008188102</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>16.60309422869734</v>
+        <v>16.87069535065102</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>38.64368141781075</v>
+        <v>43.19658243173495</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>46.92163615421593</v>
+        <v>56.06560752685756</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>9.00732167853133</v>
+        <v>23.59496676747036</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>33.37410763366637</v>
+        <v>53.40667075335006</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>42.52573093106689</v>
+        <v>67.97968649033398</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>25.25404925215121</v>
+        <v>34.78720473785083</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>46.57961540921127</v>
+        <v>61.35798906530637</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>54.58902413601554</v>
+        <v>74.3467285996643</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>48.58618177269312</v>
+        <v>68.91038097219456</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>63.24405270543946</v>
+        <v>76.33431210795257</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>72.06519478293453</v>
+        <v>90.05354524929712</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>22.3476665008926</v>
+        <v>28.21430712243007</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>55.88841099267577</v>
+        <v>67.25114755542998</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>68.48556924195746</v>
+        <v>84.52396942302487</v>
       </c>
     </row>
   </sheetData>
